--- a/biology/Médecine/Translocation_(génétique)/Translocation_(génétique).xlsx
+++ b/biology/Médecine/Translocation_(génétique)/Translocation_(génétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Translocation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Translocation_(génétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La translocation est un réarrangement chromosomique caractérisé par l'échange réciproque de matériel chromosomique entre des chromosomes non homologues, c'est-à-dire n'appartenant pas à la même paire.
 Si la translocation n’entraîne pas de perte de matériel chromosomique et donc de gènes, elle est qualifiée d’équilibrée ou de balancée. Aucune conséquence Phénotype phénotypique directe n'apparaît chez le premier individu porteur de la translocation. Un risque de trisomie et de monosomie partielles existe cependant pour la descendance si les cellules germinales sont également porteuses de cette altération. Il peut toutefois arriver que les points de cassure d'une translocation se situent à l'intérieur d'un gène important, provoquant une interruption de ce gène. Dans ce cas, cette translocation même si elle est équilibrée peut être causale d'un syndrome pathologique ou d'une anomalie phénotypique chez le porteur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Translocation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Translocation_(génétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une translocation se produit généralement lors de la méiose cellulaire. Cependant, certaines translocations rarissimes se produisent lors de la mitose cellulaire.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Translocation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Translocation_(génétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Notation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une translocation chromosomique est notée de la manière suivante en nomenclature internationale[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une translocation chromosomique est notée de la manière suivante en nomenclature internationale :
 t(A;B)(p1;q2)
 La partie t(A;B) spécifie que la translocation concerne les chromosomes des paires A et B.
 La partie (p1;q2) est facultative. Elle précise les points de cassure respectifs sur les chromosomes concernés et spécifiés précédemment, à savoir que p1 indique une région sur le chromosome A et q2 sur le chromosome B. Les préfixes de région p et q désignent respectivement les bras court et long des chromosomes. Les nombres qui suivent ces préfixes correspondent au numéro de région, de bande ou de sous-bande (cf. aussi la notion de locus).
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Translocation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Translocation_(génétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Translocation réciproque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le porteur d’une telle translocation a un caryotype anormal mais équilibré noté : 46,XY,t(4,20).
 Pendant la méiose (processus menant à la formation des gamètes), le porteur d’une translocation réciproque verra se former dans ces cellules germinales un quadrivalent à la place d’un bivalent.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Translocation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Translocation_(génétique)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Translocation robertsonienne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une anomalie de structure caractérisée par la fusion de deux chromosomes acrocentriques (type de chromosomes dont le centromère se situe à l'extrémité du bras q (ou bras long), le bras court est très petit et se présente sous la forme d'une masse condensée appelée satellite; celle-ci est rattachée au chromosome par une zone de restriction secondaire) par recombinaison non réciproque entre deux chromosomes homologues ou non homologues.
 </t>
